--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sulman/eclipse-workspace/BankOfAmerica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sulman/Desktop/gitTest/BankOfAmerica/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>FirstName</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Housingpayment</t>
+  </si>
+  <si>
+    <t>mubashar</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -613,7 +616,9 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
